--- a/tootherrorvsmodule.xlsx
+++ b/tootherrorvsmodule.xlsx
@@ -24,12 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Module</t>
   </si>
   <si>
-    <t>Tootherror</t>
+    <t>Firstclass</t>
+  </si>
+  <si>
+    <t>Carefullycut</t>
+  </si>
+  <si>
+    <t>Precision</t>
   </si>
 </sst>
 </file>
@@ -372,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
@@ -383,132 +389,228 @@
     <col min="1" max="16384" width="25.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C2" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="2">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C3" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="2">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C4" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="2">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C5" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="2">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C6" s="2">
         <v>2.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C7" s="2">
         <v>3.2000000000000001E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="C8" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="2">
+        <v>1.8599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2">
+        <v>7.8E-2</v>
+      </c>
+      <c r="C9" s="2">
         <v>3.8600000000000002E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="2">
+        <v>1.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C10" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="C11" s="2">
         <v>4.4499999999999998E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="2">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>12</v>
       </c>
       <c r="B12" s="2">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="C12" s="2">
         <v>4.87E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="2">
+        <v>2.4299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>14</v>
       </c>
       <c r="B13" s="2">
+        <v>0.104</v>
+      </c>
+      <c r="C13" s="2">
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>16</v>
       </c>
       <c r="B14" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="C14" s="2">
         <v>5.5E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>18</v>
       </c>
       <c r="B15" s="2">
+        <v>0.114</v>
+      </c>
+      <c r="C15" s="2">
         <v>5.8000000000000003E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>20</v>
       </c>
       <c r="B16" s="2">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="C16" s="2">
         <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
   </sheetData>
